--- a/3. Input/TemplateOutput.xlsx
+++ b/3. Input/TemplateOutput.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://elogroup-my.sharepoint.com/personal/jordan_dias_elogroup_com_br/Documents/Área de Trabalho/Nova pasta/Robo_Despachante/3. Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="14_{63031EB7-E148-48FF-A383-94952413A896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C56E6722-8797-4248-8AB6-25DB1E2699E3}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="14_{63031EB7-E148-48FF-A383-94952413A896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F23FDB3-F2CB-43CC-988A-698E39215DBF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId2"/>
+    <sheet name="Output" sheetId="6" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -475,69 +474,4 @@
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99284193-93C7-4D1F-80B8-207C403DAA51}">
-  <dimension ref="A1:AO2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="57.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="66.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="3"/>
-    </row>
-    <row r="2" spans="1:41" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>